--- a/data/00981A_Holdings_20251231.xlsx
+++ b/data/00981A_Holdings_20251231.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Data Date</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -474,6 +474,26 @@
           <t>Weight</t>
         </is>
       </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Close Price</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Market Value</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>Share Change</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>Net Amount</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -494,6 +514,18 @@
           <t>9.69%</t>
         </is>
       </c>
+      <c r="E4" t="n">
+        <v>1550</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4876300000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -514,6 +546,18 @@
           <t>6.66%</t>
         </is>
       </c>
+      <c r="E5" t="n">
+        <v>1645</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3350865000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +578,18 @@
           <t>6.41%</t>
         </is>
       </c>
+      <c r="E6" t="n">
+        <v>1510</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3225360000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -554,6 +610,18 @@
           <t>6.17%</t>
         </is>
       </c>
+      <c r="E7" t="n">
+        <v>4485</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3108105000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -574,6 +642,18 @@
           <t>5.78%</t>
         </is>
       </c>
+      <c r="E8" t="n">
+        <v>687</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2910819000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -594,6 +674,18 @@
           <t>5.55%</t>
         </is>
       </c>
+      <c r="E9" t="n">
+        <v>1185</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2793045000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -614,6 +706,18 @@
           <t>4.84%</t>
         </is>
       </c>
+      <c r="E10" t="n">
+        <v>963</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2438316000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -634,6 +738,18 @@
           <t>4.81%</t>
         </is>
       </c>
+      <c r="E11" t="n">
+        <v>2250</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2423250000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -654,6 +770,18 @@
           <t>4.74%</t>
         </is>
       </c>
+      <c r="E12" t="n">
+        <v>494</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2384538000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -674,6 +802,18 @@
           <t>4.63%</t>
         </is>
       </c>
+      <c r="E13" t="n">
+        <v>1520</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2329928960</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -694,6 +834,18 @@
           <t>4.05%</t>
         </is>
       </c>
+      <c r="E14" t="n">
+        <v>2745</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2039535000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -714,6 +866,18 @@
           <t>3.71%</t>
         </is>
       </c>
+      <c r="E15" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1867050000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -734,6 +898,18 @@
           <t>3.32%</t>
         </is>
       </c>
+      <c r="E16" t="n">
+        <v>1430</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1670240000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -754,6 +930,18 @@
           <t>3.21%</t>
         </is>
       </c>
+      <c r="E17" t="n">
+        <v>1625</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1618500000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -774,6 +962,18 @@
           <t>2.95%</t>
         </is>
       </c>
+      <c r="E18" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1485390000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -794,6 +994,18 @@
           <t>2.84%</t>
         </is>
       </c>
+      <c r="E19" t="n">
+        <v>3510</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1432080000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -814,6 +1026,18 @@
           <t>2.78%</t>
         </is>
       </c>
+      <c r="E20" t="n">
+        <v>1450</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1399250000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -834,6 +1058,18 @@
           <t>1.98%</t>
         </is>
       </c>
+      <c r="E21" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>995940000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -854,6 +1090,18 @@
           <t>1.93%</t>
         </is>
       </c>
+      <c r="E22" t="n">
+        <v>7260</v>
+      </c>
+      <c r="F22" t="n">
+        <v>972840000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -874,6 +1122,18 @@
           <t>1.73%</t>
         </is>
       </c>
+      <c r="E23" t="n">
+        <v>3750</v>
+      </c>
+      <c r="F23" t="n">
+        <v>870000000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -894,6 +1154,18 @@
           <t>1.48%</t>
         </is>
       </c>
+      <c r="E24" t="n">
+        <v>949</v>
+      </c>
+      <c r="F24" t="n">
+        <v>745914000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -914,6 +1186,18 @@
           <t>0.92%</t>
         </is>
       </c>
+      <c r="E25" t="n">
+        <v>277</v>
+      </c>
+      <c r="F25" t="n">
+        <v>462036000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -934,6 +1218,18 @@
           <t>0.87%</t>
         </is>
       </c>
+      <c r="E26" t="n">
+        <v>93.09999847412109</v>
+      </c>
+      <c r="F26" t="n">
+        <v>436173492.8512573</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -954,6 +1250,18 @@
           <t>0.79%</t>
         </is>
       </c>
+      <c r="E27" t="n">
+        <v>781</v>
+      </c>
+      <c r="F27" t="n">
+        <v>399872000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -974,6 +1282,18 @@
           <t>0.69%</t>
         </is>
       </c>
+      <c r="E28" t="n">
+        <v>112</v>
+      </c>
+      <c r="F28" t="n">
+        <v>345856000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -994,6 +1314,18 @@
           <t>0.65%</t>
         </is>
       </c>
+      <c r="E29" t="n">
+        <v>1295</v>
+      </c>
+      <c r="F29" t="n">
+        <v>326340000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1014,6 +1346,18 @@
           <t>0.62%</t>
         </is>
       </c>
+      <c r="E30" t="n">
+        <v>60.20000076293945</v>
+      </c>
+      <c r="F30" t="n">
+        <v>311414603.9466858</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1034,6 +1378,18 @@
           <t>0.5%</t>
         </is>
       </c>
+      <c r="E31" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>252827400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1054,6 +1410,18 @@
           <t>0.49%</t>
         </is>
       </c>
+      <c r="E32" t="n">
+        <v>142</v>
+      </c>
+      <c r="F32" t="n">
+        <v>246796000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1074,6 +1442,18 @@
           <t>0.46%</t>
         </is>
       </c>
+      <c r="E33" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>233275000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1094,6 +1474,18 @@
           <t>0.42%</t>
         </is>
       </c>
+      <c r="E34" t="n">
+        <v>248</v>
+      </c>
+      <c r="F34" t="n">
+        <v>211792000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1114,6 +1506,18 @@
           <t>0.39%</t>
         </is>
       </c>
+      <c r="E35" t="n">
+        <v>61.70000076293945</v>
+      </c>
+      <c r="F35" t="n">
+        <v>197995302.4482727</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1134,6 +1538,18 @@
           <t>0.37%</t>
         </is>
       </c>
+      <c r="E36" t="n">
+        <v>337</v>
+      </c>
+      <c r="F36" t="n">
+        <v>187035000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1154,6 +1570,18 @@
           <t>0.3%</t>
         </is>
       </c>
+      <c r="E37" t="n">
+        <v>97</v>
+      </c>
+      <c r="F37" t="n">
+        <v>152678000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1174,6 +1602,18 @@
           <t>0.27%</t>
         </is>
       </c>
+      <c r="E38" t="n">
+        <v>2840</v>
+      </c>
+      <c r="F38" t="n">
+        <v>136320000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1194,6 +1634,18 @@
           <t>0.18%</t>
         </is>
       </c>
+      <c r="E39" t="n">
+        <v>92.09999847412109</v>
+      </c>
+      <c r="F39" t="n">
+        <v>88139698.53973389</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1214,6 +1666,18 @@
           <t>0.1%</t>
         </is>
       </c>
+      <c r="E40" t="n">
+        <v>159</v>
+      </c>
+      <c r="F40" t="n">
+        <v>48654000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1234,6 +1698,18 @@
           <t>0.09%</t>
         </is>
       </c>
+      <c r="E41" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>45402500</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1254,6 +1730,18 @@
           <t>0.01%</t>
         </is>
       </c>
+      <c r="E42" t="n">
+        <v>2285</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4570000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1274,6 +1762,18 @@
           <t>0.0%</t>
         </is>
       </c>
+      <c r="E43" t="n">
+        <v>548</v>
+      </c>
+      <c r="F43" t="n">
+        <v>548000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1294,6 +1794,18 @@
           <t>0.0%</t>
         </is>
       </c>
+      <c r="E44" t="n">
+        <v>580</v>
+      </c>
+      <c r="F44" t="n">
+        <v>580000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1314,6 +1826,18 @@
           <t>0.0%</t>
         </is>
       </c>
+      <c r="E45" t="n">
+        <v>97.69999694824219</v>
+      </c>
+      <c r="F45" t="n">
+        <v>97699.99694824219</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1334,6 +1858,18 @@
           <t>0.0%</t>
         </is>
       </c>
+      <c r="E46" t="n">
+        <v>2495</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2495000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1354,6 +1890,18 @@
           <t>0.0%</t>
         </is>
       </c>
+      <c r="E47" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>108500</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1374,6 +1922,18 @@
           <t>0.0%</t>
         </is>
       </c>
+      <c r="E48" t="n">
+        <v>552</v>
+      </c>
+      <c r="F48" t="n">
+        <v>552000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1394,6 +1954,18 @@
           <t>0.0%</t>
         </is>
       </c>
+      <c r="E49" t="n">
+        <v>613</v>
+      </c>
+      <c r="F49" t="n">
+        <v>613000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1414,6 +1986,18 @@
           <t>0.0%</t>
         </is>
       </c>
+      <c r="E50" t="n">
+        <v>231</v>
+      </c>
+      <c r="F50" t="n">
+        <v>231000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1434,6 +2018,18 @@
           <t>0.0%</t>
         </is>
       </c>
+      <c r="E51" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="F51" t="n">
+        <v>34087.5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1454,6 +2050,18 @@
           <t>0.0%</t>
         </is>
       </c>
+      <c r="E52" t="n">
+        <v>334</v>
+      </c>
+      <c r="F52" t="n">
+        <v>334000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1473,6 +2081,18 @@
         <is>
           <t>0.0%</t>
         </is>
+      </c>
+      <c r="E53" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>250500</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
